--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Lag3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.0427669092347271</v>
+        <v>0.141273</v>
       </c>
       <c r="H2">
-        <v>0.0427669092347271</v>
+        <v>0.423819</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3794482221436341</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3794482221436342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.2555586532394</v>
+        <v>4.972748999999999</v>
       </c>
       <c r="N2">
-        <v>4.2555586532394</v>
+        <v>14.918247</v>
       </c>
       <c r="O2">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="P2">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="Q2">
-        <v>0.1819970906661469</v>
+        <v>0.702515169477</v>
       </c>
       <c r="R2">
-        <v>0.1819970906661469</v>
+        <v>6.322636525292999</v>
       </c>
       <c r="S2">
-        <v>0.117158180908461</v>
+        <v>0.04811347317240933</v>
       </c>
       <c r="T2">
-        <v>0.117158180908461</v>
+        <v>0.04811347317240934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.0427669092347271</v>
+        <v>0.141273</v>
       </c>
       <c r="H3">
-        <v>0.0427669092347271</v>
+        <v>0.423819</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3794482221436341</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3794482221436342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.65626502033925</v>
+        <v>4.661742</v>
       </c>
       <c r="N3">
-        <v>4.65626502033925</v>
+        <v>13.985226</v>
       </c>
       <c r="O3">
-        <v>0.1281898768321256</v>
+        <v>0.118868253461235</v>
       </c>
       <c r="P3">
-        <v>0.1281898768321256</v>
+        <v>0.1188682534612351</v>
       </c>
       <c r="Q3">
-        <v>0.1991340634976834</v>
+        <v>0.6585782775660001</v>
       </c>
       <c r="R3">
-        <v>0.1991340634976834</v>
+        <v>5.927204498094</v>
       </c>
       <c r="S3">
-        <v>0.1281898768321256</v>
+        <v>0.04510434744518451</v>
       </c>
       <c r="T3">
-        <v>0.1281898768321256</v>
+        <v>0.04510434744518453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.0427669092347271</v>
+        <v>0.141273</v>
       </c>
       <c r="H4">
-        <v>0.0427669092347271</v>
+        <v>0.423819</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3794482221436341</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3794482221436342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.78375548982553</v>
+        <v>7.194976</v>
       </c>
       <c r="N4">
-        <v>5.78375548982553</v>
+        <v>21.584928</v>
       </c>
       <c r="O4">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632551</v>
       </c>
       <c r="P4">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632552</v>
       </c>
       <c r="Q4">
-        <v>0.247353346069223</v>
+        <v>1.016455844448</v>
       </c>
       <c r="R4">
-        <v>0.247353346069223</v>
+        <v>9.148102600031999</v>
       </c>
       <c r="S4">
-        <v>0.1592303918761578</v>
+        <v>0.0696144697333666</v>
       </c>
       <c r="T4">
-        <v>0.1592303918761578</v>
+        <v>0.06961446973336662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.0427669092347271</v>
+        <v>0.141273</v>
       </c>
       <c r="H5">
-        <v>0.0427669092347271</v>
+        <v>0.423819</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3794482221436341</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3794482221436342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.4891803735378</v>
+        <v>14.550925</v>
       </c>
       <c r="N5">
-        <v>14.4891803735378</v>
+        <v>43.652775</v>
       </c>
       <c r="O5">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="P5">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="Q5">
-        <v>0.6196574619206804</v>
+        <v>2.055652827525</v>
       </c>
       <c r="R5">
-        <v>0.6196574619206804</v>
+        <v>18.500875447725</v>
       </c>
       <c r="S5">
-        <v>0.3988961623466476</v>
+        <v>0.1407864220818787</v>
       </c>
       <c r="T5">
-        <v>0.3988961623466476</v>
+        <v>0.1407864220818787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.0427669092347271</v>
+        <v>0.141273</v>
       </c>
       <c r="H6">
-        <v>0.0427669092347271</v>
+        <v>0.423819</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3794482221436341</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3794482221436342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.27681437972067</v>
+        <v>2.29111</v>
       </c>
       <c r="N6">
-        <v>2.27681437972067</v>
+        <v>6.87333</v>
       </c>
       <c r="O6">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="P6">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="Q6">
-        <v>0.09737231392183536</v>
+        <v>0.3236719830300001</v>
       </c>
       <c r="R6">
-        <v>0.09737231392183536</v>
+        <v>2.91304784727</v>
       </c>
       <c r="S6">
-        <v>0.06268211831394858</v>
+        <v>0.02216746904379022</v>
       </c>
       <c r="T6">
-        <v>0.06268211831394858</v>
+        <v>0.02216746904379022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.141273</v>
+      </c>
+      <c r="H7">
+        <v>0.423819</v>
+      </c>
+      <c r="I7">
+        <v>0.3794482221436341</v>
+      </c>
+      <c r="J7">
+        <v>0.3794482221436342</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.546219</v>
+      </c>
+      <c r="N7">
+        <v>16.638657</v>
+      </c>
+      <c r="O7">
+        <v>0.1414212467878998</v>
+      </c>
+      <c r="P7">
+        <v>0.1414212467878998</v>
+      </c>
+      <c r="Q7">
+        <v>0.783530996787</v>
+      </c>
+      <c r="R7">
+        <v>7.051778971082999</v>
+      </c>
+      <c r="S7">
+        <v>0.0536620406670047</v>
+      </c>
+      <c r="T7">
+        <v>0.0536620406670047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.052698</v>
+      </c>
+      <c r="H8">
+        <v>0.158094</v>
+      </c>
+      <c r="I8">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="J8">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.972748999999999</v>
+      </c>
+      <c r="N8">
+        <v>14.918247</v>
+      </c>
+      <c r="O8">
+        <v>0.1267985204953648</v>
+      </c>
+      <c r="P8">
+        <v>0.1267985204953648</v>
+      </c>
+      <c r="Q8">
+        <v>0.262053926802</v>
+      </c>
+      <c r="R8">
+        <v>2.358485341218</v>
+      </c>
+      <c r="S8">
+        <v>0.01794740544364193</v>
+      </c>
+      <c r="T8">
+        <v>0.01794740544364194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.052698</v>
+      </c>
+      <c r="H9">
+        <v>0.158094</v>
+      </c>
+      <c r="I9">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="J9">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.661742</v>
+      </c>
+      <c r="N9">
+        <v>13.985226</v>
+      </c>
+      <c r="O9">
+        <v>0.118868253461235</v>
+      </c>
+      <c r="P9">
+        <v>0.1188682534612351</v>
+      </c>
+      <c r="Q9">
+        <v>0.245664479916</v>
+      </c>
+      <c r="R9">
+        <v>2.210980319244</v>
+      </c>
+      <c r="S9">
+        <v>0.01682493400484405</v>
+      </c>
+      <c r="T9">
+        <v>0.01682493400484406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.052698</v>
+      </c>
+      <c r="H10">
+        <v>0.158094</v>
+      </c>
+      <c r="I10">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="J10">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.194976</v>
+      </c>
+      <c r="N10">
+        <v>21.584928</v>
+      </c>
+      <c r="O10">
+        <v>0.1834623689632551</v>
+      </c>
+      <c r="P10">
+        <v>0.1834623689632552</v>
+      </c>
+      <c r="Q10">
+        <v>0.379160845248</v>
+      </c>
+      <c r="R10">
+        <v>3.412447607232</v>
+      </c>
+      <c r="S10">
+        <v>0.02596775977015391</v>
+      </c>
+      <c r="T10">
+        <v>0.02596775977015391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.052698</v>
+      </c>
+      <c r="H11">
+        <v>0.158094</v>
+      </c>
+      <c r="I11">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="J11">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.550925</v>
+      </c>
+      <c r="N11">
+        <v>43.652775</v>
+      </c>
+      <c r="O11">
+        <v>0.3710293364573632</v>
+      </c>
+      <c r="P11">
+        <v>0.3710293364573632</v>
+      </c>
+      <c r="Q11">
+        <v>0.7668046456499999</v>
+      </c>
+      <c r="R11">
+        <v>6.90124181085</v>
+      </c>
+      <c r="S11">
+        <v>0.0525164955148602</v>
+      </c>
+      <c r="T11">
+        <v>0.05251649551486021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.052698</v>
+      </c>
+      <c r="H12">
+        <v>0.158094</v>
+      </c>
+      <c r="I12">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="J12">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.29111</v>
+      </c>
+      <c r="N12">
+        <v>6.87333</v>
+      </c>
+      <c r="O12">
+        <v>0.05842027383488194</v>
+      </c>
+      <c r="P12">
+        <v>0.05842027383488194</v>
+      </c>
+      <c r="Q12">
+        <v>0.12073691478</v>
+      </c>
+      <c r="R12">
+        <v>1.08663223302</v>
+      </c>
+      <c r="S12">
+        <v>0.008268963522185108</v>
+      </c>
+      <c r="T12">
+        <v>0.00826896352218511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.052698</v>
+      </c>
+      <c r="H13">
+        <v>0.158094</v>
+      </c>
+      <c r="I13">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="J13">
+        <v>0.1415427039174169</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.546219</v>
+      </c>
+      <c r="N13">
+        <v>16.638657</v>
+      </c>
+      <c r="O13">
+        <v>0.1414212467878998</v>
+      </c>
+      <c r="P13">
+        <v>0.1414212467878998</v>
+      </c>
+      <c r="Q13">
+        <v>0.292274648862</v>
+      </c>
+      <c r="R13">
+        <v>2.630471839758</v>
+      </c>
+      <c r="S13">
+        <v>0.02001714566173164</v>
+      </c>
+      <c r="T13">
+        <v>0.02001714566173164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.0427669092347271</v>
-      </c>
-      <c r="H7">
-        <v>0.0427669092347271</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.8616142742191</v>
-      </c>
-      <c r="N7">
-        <v>4.8616142742191</v>
-      </c>
-      <c r="O7">
-        <v>0.1338432697226593</v>
-      </c>
-      <c r="P7">
-        <v>0.1338432697226593</v>
-      </c>
-      <c r="Q7">
-        <v>0.2079162163997819</v>
-      </c>
-      <c r="R7">
-        <v>0.2079162163997819</v>
-      </c>
-      <c r="S7">
-        <v>0.1338432697226593</v>
-      </c>
-      <c r="T7">
-        <v>0.1338432697226593</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1783406666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.535022</v>
+      </c>
+      <c r="I14">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="J14">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.972748999999999</v>
+      </c>
+      <c r="N14">
+        <v>14.918247</v>
+      </c>
+      <c r="O14">
+        <v>0.1267985204953648</v>
+      </c>
+      <c r="P14">
+        <v>0.1267985204953648</v>
+      </c>
+      <c r="Q14">
+        <v>0.8868433718259999</v>
+      </c>
+      <c r="R14">
+        <v>7.981590346433999</v>
+      </c>
+      <c r="S14">
+        <v>0.06073764187931353</v>
+      </c>
+      <c r="T14">
+        <v>0.06073764187931355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1783406666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.535022</v>
+      </c>
+      <c r="I15">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="J15">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.661742</v>
+      </c>
+      <c r="N15">
+        <v>13.985226</v>
+      </c>
+      <c r="O15">
+        <v>0.118868253461235</v>
+      </c>
+      <c r="P15">
+        <v>0.1188682534612351</v>
+      </c>
+      <c r="Q15">
+        <v>0.8313781761080001</v>
+      </c>
+      <c r="R15">
+        <v>7.482403584972</v>
+      </c>
+      <c r="S15">
+        <v>0.05693897201120646</v>
+      </c>
+      <c r="T15">
+        <v>0.05693897201120647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1783406666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.535022</v>
+      </c>
+      <c r="I16">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="J16">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.194976</v>
+      </c>
+      <c r="N16">
+        <v>21.584928</v>
+      </c>
+      <c r="O16">
+        <v>0.1834623689632551</v>
+      </c>
+      <c r="P16">
+        <v>0.1834623689632552</v>
+      </c>
+      <c r="Q16">
+        <v>1.283156816490667</v>
+      </c>
+      <c r="R16">
+        <v>11.548411348416</v>
+      </c>
+      <c r="S16">
+        <v>0.08788013945973462</v>
+      </c>
+      <c r="T16">
+        <v>0.08788013945973462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1783406666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.535022</v>
+      </c>
+      <c r="I17">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="J17">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.550925</v>
+      </c>
+      <c r="N17">
+        <v>43.652775</v>
+      </c>
+      <c r="O17">
+        <v>0.3710293364573632</v>
+      </c>
+      <c r="P17">
+        <v>0.3710293364573632</v>
+      </c>
+      <c r="Q17">
+        <v>2.595021665116667</v>
+      </c>
+      <c r="R17">
+        <v>23.35519498605</v>
+      </c>
+      <c r="S17">
+        <v>0.1777264188606243</v>
+      </c>
+      <c r="T17">
+        <v>0.1777264188606243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1783406666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.535022</v>
+      </c>
+      <c r="I18">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="J18">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.29111</v>
+      </c>
+      <c r="N18">
+        <v>6.87333</v>
+      </c>
+      <c r="O18">
+        <v>0.05842027383488194</v>
+      </c>
+      <c r="P18">
+        <v>0.05842027383488194</v>
+      </c>
+      <c r="Q18">
+        <v>0.4085980848066667</v>
+      </c>
+      <c r="R18">
+        <v>3.67738276326</v>
+      </c>
+      <c r="S18">
+        <v>0.02798384126890661</v>
+      </c>
+      <c r="T18">
+        <v>0.02798384126890661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1783406666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.535022</v>
+      </c>
+      <c r="I19">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="J19">
+        <v>0.479009073938949</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.546219</v>
+      </c>
+      <c r="N19">
+        <v>16.638657</v>
+      </c>
+      <c r="O19">
+        <v>0.1414212467878998</v>
+      </c>
+      <c r="P19">
+        <v>0.1414212467878998</v>
+      </c>
+      <c r="Q19">
+        <v>0.9891163939393334</v>
+      </c>
+      <c r="R19">
+        <v>8.902047545454</v>
+      </c>
+      <c r="S19">
+        <v>0.06774206045916344</v>
+      </c>
+      <c r="T19">
+        <v>0.06774206045916344</v>
       </c>
     </row>
   </sheetData>
